--- a/chipSolver/Book1.xlsx
+++ b/chipSolver/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="320">
   <si>
     <t>cal_time</t>
   </si>
@@ -52,6 +52,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>ending order</t>
+  </si>
+  <si>
     <t>[((8, 4, 0), (8, 15, 0)), ((3, 2, 0), (4, 12, 0)), ((6, 1, 0), (13, 13, 0)), ((6, 9, 0), (15, 3, 0)), ((13, 7, 0), (6, 8, 0)), ((14, 2, 0), (4, 5, 0)), ((13, 15, 0), (15, 1, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 8, 0), (9, 10, 0)), ((1, 1, 0), (8, 15, 0)), ((10, 5, 0), (15, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((15, 8, 0), (6, 14, 0)), ((2, 6, 0), (15, 12, 0)), ((8, 4, 0), (1, 1, 0)), ((14, 2, 0), (12, 6, 0)), ((16, 7, 0), (16, 5, 0)), ((11, 8, 0), (3, 2, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 9, 0), (15, 1, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 15, 0), (15, 6, 0)), ((13, 7, 0), (13, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((9, 8, 0), (6, 3, 0)), ((11, 8, 0), (6, 9, 0)), ((15, 6, 0), (11, 15, 0)), ((7, 6, 0), (2, 12, 0)), ((3, 2, 0), (4, 5, 0)), ((12, 6, 0), (1, 1, 0)), ((9, 13, 0), (10, 6, 0)), ((15, 1, 0), (4, 14, 0)), ((10, 5, 0), (6, 14, 0)), ((1, 3, 0), (12, 6, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 14, 0), (6, 3, 0)), ((16, 7, 0), (1, 9, 0)), ((10, 1, 0), (4, 12, 0)), ((6, 14, 0), (9, 8, 0)), ((6, 1, 0), (8, 4, 0)), ((1, 9, 0), (12, 2, 0)), ((2, 4, 0), (1, 9, 0)), ((4, 5, 0), (2, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 12, 0), (4, 5, 0)), ((2, 12, 0), (8, 15, 0))]</t>
   </si>
   <si>
@@ -529,6 +532,36 @@
     <t>[((13, 15, 0), (15, 1, 0)), ((6, 1, 0), (8, 4, 0)), ((15, 1, 0), (10, 1, 0)), ((13, 7, 0), (13, 15, 0)), ((12, 6, 0), (1, 1, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 1, 0), (4, 14, 0)), ((10, 5, 0), (15, 12, 0)), ((6, 1, 0), (13, 13, 0)), ((2, 6, 0), (15, 12, 0)), ((2, 4, 0), (1, 9, 0)), ((10, 5, 0), (6, 14, 0)), ((6, 9, 0), (15, 3, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 5, 0), (16, 15, 0)), ((1, 3, 0), (12, 6, 0)), ((4, 5, 0), (8, 4, 0)), ((14, 2, 0), (4, 5, 0)), ((9, 13, 0), (10, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((16, 15, 0), (15, 6, 0)), ((6, 14, 0), (9, 8, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 8, 0), (9, 10, 0)), ((1, 15, 0), (12, 2, 0)), ((12, 3, 0), (11, 8, 0)), ((15, 6, 0), (11, 15, 0)), ((11, 8, 0), (3, 2, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 1, 0), (8, 15, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 12, 0), (4, 5, 0)), ((8, 4, 0), (1, 1, 0)), ((4, 5, 0), (2, 12, 0)), ((3, 2, 0), (4, 5, 0)), ((2, 12, 0), (8, 15, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 9, 0), (15, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((14, 2, 0), (12, 6, 0)), ((1, 9, 0), (12, 2, 0)), ((7, 6, 0), (2, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((8, 4, 0), (8, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((13, 7, 0), (6, 8, 0)), ((15, 8, 0), (6, 14, 0)), ((6, 8, 0), (2, 12, 0)), ((4, 14, 0), (6, 3, 0))]</t>
   </si>
   <si>
+    <t>[((6, 1, 0), (13, 13, 0)), ((15, 8, 0), (6, 14, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 1, 0), (4, 14, 0)), ((15, 1, 0), (10, 1, 0)), ((14, 2, 0), (12, 6, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 15, 0), (12, 11, 0)), ((10, 5, 0), (6, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((13, 7, 0), (6, 8, 0)), ((1, 9, 0), (15, 1, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 12, 0), (4, 5, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 1, 0), (8, 15, 0)), ((4, 5, 0), (2, 12, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 6, 0), (15, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((7, 8, 0), (9, 8, 0)), ((1, 3, 0), (12, 6, 0)), ((11, 8, 0), (6, 9, 0)), ((16, 7, 0), (1, 9, 0)), ((13, 7, 0), (13, 15, 0)), ((16, 15, 0), (15, 6, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 6, 0), (11, 15, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((16, 7, 0), (16, 5, 0)), ((2, 4, 0), (1, 9, 0)), ((3, 2, 0), (4, 5, 0)), ((11, 5, 0), (7, 12, 0)), ((12, 6, 0), (1, 1, 0)), ((6, 7, 0), (3, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((4, 5, 0), (8, 4, 0)), ((9, 8, 0), (6, 3, 0)), ((7, 6, 0), (2, 12, 0)), ((10, 5, 0), (15, 12, 0)), ((4, 14, 0), (6, 3, 0)), ((8, 4, 0), (8, 15, 0)), ((15, 8, 0), (9, 10, 0)), ((13, 15, 0), (15, 1, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 3, 0), (12, 6, 0)), ((2, 12, 0), (8, 15, 0)), ((2, 4, 0), (1, 9, 0)), ((8, 4, 0), (1, 1, 0)), ((4, 14, 0), (6, 3, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 7, 0), (3, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((15, 6, 0), (11, 15, 0)), ((9, 8, 0), (6, 3, 0)), ((15, 8, 0), (6, 14, 0)), ((6, 1, 0), (8, 4, 0)), ((16, 7, 0), (1, 9, 0)), ((7, 6, 0), (2, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((3, 2, 0), (4, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((3, 2, 0), (4, 5, 0)), ((6, 15, 0), (12, 11, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 12, 0), (4, 5, 0)), ((8, 4, 0), (8, 15, 0)), ((11, 8, 0), (3, 2, 0)), ((10, 5, 0), (6, 14, 0)), ((7, 8, 0), (9, 8, 0)), ((11, 8, 0), (6, 9, 0)), ((12, 3, 0), (11, 8, 0)), ((4, 5, 0), (8, 4, 0)), ((15, 1, 0), (10, 1, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 8, 0), (3, 2, 0)), ((4, 5, 0), (2, 12, 0)), ((13, 7, 0), (6, 8, 0)), ((9, 13, 0), (10, 6, 0)), ((6, 1, 0), (13, 13, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 8, 0), (9, 10, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 15, 0), (15, 6, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 15, 0), (12, 2, 0)), ((15, 1, 0), (4, 14, 0)), ((2, 6, 0), (15, 12, 0)), ((13, 7, 0), (13, 15, 0)), ((11, 5, 0), (7, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((10, 5, 0), (15, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((14, 2, 0), (12, 6, 0))]</t>
+  </si>
+  <si>
+    <t>[((6, 8, 0), (2, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 7, 0), (3, 2, 0)), ((2, 12, 0), (8, 15, 0)), ((8, 4, 0), (8, 15, 0)), ((7, 6, 0), (2, 12, 0)), ((3, 2, 0), (4, 5, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 1, 0), (8, 15, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (1, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((13, 15, 0), (15, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 1, 0), (4, 14, 0)), ((16, 7, 0), (1, 9, 0)), ((14, 2, 0), (12, 6, 0)), ((15, 8, 0), (3, 2, 0)), ((11, 8, 0), (3, 2, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 9, 0), (15, 3, 0)), ((3, 2, 0), (4, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 8, 0), (6, 14, 0)), ((2, 6, 0), (15, 12, 0)), ((1, 3, 0), (12, 6, 0)), ((15, 1, 0), (10, 1, 0)), ((14, 2, 0), (4, 5, 0)), ((13, 7, 0), (13, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 8, 0), (9, 10, 0)), ((9, 13, 0), (10, 6, 0)), ((4, 5, 0), (2, 12, 0)), ((16, 7, 0), (16, 5, 0)), ((4, 14, 0), (6, 3, 0)), ((2, 4, 0), (1, 9, 0)), ((1, 15, 0), (12, 2, 0)), ((16, 15, 0), (15, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((13, 7, 0), (6, 8, 0)), ((15, 12, 0), (4, 5, 0)), ((10, 5, 0), (6, 14, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 8, 0), (6, 9, 0)), ((6, 1, 0), (13, 13, 0))]</t>
+  </si>
+  <si>
+    <t>[((11, 8, 0), (6, 9, 0)), ((15, 1, 0), (4, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((15, 8, 0), (9, 10, 0)), ((13, 7, 0), (13, 15, 0)), ((3, 2, 0), (4, 12, 0)), ((8, 4, 0), (1, 1, 0)), ((3, 2, 0), (4, 5, 0)), ((11, 5, 0), (7, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((15, 12, 0), (4, 5, 0)), ((10, 1, 0), (4, 12, 0)), ((12, 6, 0), (1, 1, 0)), ((10, 5, 0), (6, 14, 0)), ((9, 8, 0), (6, 3, 0)), ((6, 14, 0), (9, 8, 0)), ((14, 2, 0), (12, 6, 0)), ((13, 7, 0), (6, 8, 0)), ((9, 13, 0), (10, 6, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((2, 4, 0), (1, 9, 0)), ((4, 5, 0), (8, 4, 0)), ((2, 6, 0), (15, 12, 0)), ((15, 6, 0), (11, 15, 0)), ((4, 14, 0), (6, 3, 0)), ((1, 9, 0), (15, 1, 0)), ((4, 5, 0), (2, 12, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((1, 3, 0), (12, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 1, 0), (10, 1, 0)), ((7, 8, 0), (9, 8, 0)), ((11, 8, 0), (3, 2, 0)), ((13, 15, 0), (15, 1, 0)), ((7, 6, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((6, 8, 0), (2, 12, 0)), ((6, 7, 0), (3, 2, 0)), ((12, 3, 0), (11, 8, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 8, 0), (6, 14, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 9, 0), (12, 2, 0)), ((14, 2, 0), (12, 6, 0)), ((1, 9, 0), (15, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((6, 15, 0), (12, 11, 0)), ((11, 8, 0), (3, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((7, 8, 0), (9, 8, 0)), ((14, 2, 0), (4, 5, 0)), ((13, 7, 0), (13, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 12, 0), (8, 15, 0)), ((3, 2, 0), (4, 5, 0)), ((15, 8, 0), (9, 10, 0)), ((9, 13, 0), (10, 6, 0)), ((10, 5, 0), (15, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((10, 5, 0), (6, 14, 0)), ((2, 6, 0), (15, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((12, 6, 0), (1, 1, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 6, 0), (11, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((16, 7, 0), (1, 9, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((4, 5, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((3, 2, 0), (4, 12, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 5, 0), (16, 15, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 1, 0), (4, 14, 0)), ((7, 6, 0), (2, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((6, 14, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((4, 5, 0), (8, 4, 0)), ((4, 14, 0), (6, 3, 0)), ((6, 1, 0), (13, 13, 0)), ((10, 1, 0), (4, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((6, 7, 0), (3, 2, 0)), ((1, 1, 0), (8, 15, 0)), ((15, 12, 0), (4, 5, 0)), ((13, 7, 0), (6, 8, 0)), ((15, 8, 0), (6, 14, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 15, 0), (12, 2, 0)), ((16, 15, 0), (15, 6, 0)), ((6, 7, 0), (3, 2, 0)), ((15, 1, 0), (10, 1, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 12, 0), (4, 5, 0)), ((2, 12, 0), (8, 15, 0)), ((1, 5, 0), (16, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((16, 7, 0), (16, 5, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 9, 0), (12, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((14, 2, 0), (12, 6, 0)), ((15, 1, 0), (4, 14, 0)), ((4, 5, 0), (2, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((8, 4, 0), (1, 1, 0)), ((3, 2, 0), (4, 5, 0)), ((10, 5, 0), (6, 14, 0)), ((15, 8, 0), (9, 10, 0)), ((13, 7, 0), (13, 15, 0)), ((15, 8, 0), (6, 14, 0)), ((2, 4, 0), (1, 9, 0)), ((1, 3, 0), (12, 6, 0)), ((7, 6, 0), (2, 12, 0)), ((16, 7, 0), (1, 9, 0)), ((3, 2, 0), (4, 12, 0)), ((8, 4, 0), (8, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((4, 14, 0), (6, 3, 0)), ((12, 6, 0), (1, 1, 0)), ((14, 2, 0), (4, 5, 0)), ((9, 8, 0), (6, 3, 0)), ((6, 15, 0), (12, 11, 0)), ((9, 13, 0), (10, 6, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((6, 1, 0), (13, 13, 0)), ((13, 15, 0), (15, 1, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 8, 0), (2, 12, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 9, 0), (15, 3, 0)), ((11, 8, 0), (3, 2, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((7, 8, 0), (9, 8, 0)), ((1, 9, 0), (15, 1, 0))]</t>
+  </si>
+  <si>
+    <t>[((15, 12, 0), (4, 5, 0)), ((1, 9, 0), (15, 1, 0)), ((8, 4, 0), (8, 15, 0)), ((4, 14, 0), (6, 3, 0)), ((13, 7, 0), (13, 15, 0)), ((1, 1, 0), (8, 15, 0)), ((14, 2, 0), (4, 5, 0)), ((3, 2, 0), (4, 12, 0)), ((6, 9, 0), (15, 3, 0)), ((2, 6, 0), (15, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 3, 0), (12, 6, 0)), ((12, 3, 0), (11, 8, 0)), ((6, 14, 0), (9, 8, 0)), ((6, 7, 0), (3, 2, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((9, 13, 0), (10, 6, 0)), ((13, 15, 0), (15, 1, 0)), ((15, 8, 0), (3, 2, 0)), ((7, 6, 0), (2, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((9, 8, 0), (6, 3, 0)), ((14, 2, 0), (12, 6, 0)), ((15, 1, 0), (10, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 1, 0), (8, 4, 0)), ((4, 5, 0), (2, 12, 0)), ((15, 8, 0), (9, 10, 0)), ((10, 5, 0), (6, 14, 0)), ((8, 4, 0), (1, 1, 0)), ((11, 8, 0), (3, 2, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 1, 0), (4, 14, 0)), ((7, 8, 0), (9, 8, 0)), ((13, 7, 0), (6, 8, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 8, 0), (6, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((4, 5, 0), (8, 4, 0)), ((1, 15, 0), (12, 2, 0)), ((3, 2, 0), (4, 5, 0)), ((2, 4, 0), (1, 9, 0)), ((11, 8, 0), (6, 9, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 1, 0), (8, 15, 0)), ((6, 9, 0), (15, 3, 0)), ((8, 4, 0), (1, 1, 0)), ((11, 8, 0), (6, 9, 0)), ((4, 5, 0), (2, 12, 0)), ((2, 12, 0), (8, 15, 0)), ((9, 13, 0), (10, 6, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 8, 0), (9, 10, 0)), ((7, 6, 0), (2, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((2, 4, 0), (1, 9, 0)), ((6, 8, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((14, 2, 0), (4, 5, 0)), ((1, 9, 0), (12, 2, 0)), ((4, 14, 0), (6, 3, 0)), ((3, 2, 0), (4, 5, 0)), ((12, 6, 0), (1, 1, 0)), ((1, 3, 0), (12, 6, 0)), ((12, 3, 0), (11, 8, 0)), ((6, 15, 0), (12, 11, 0)), ((9, 8, 0), (6, 3, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 7, 0), (3, 2, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 12, 0), (4, 5, 0)), ((2, 6, 0), (15, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((15, 6, 0), (11, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((10, 5, 0), (6, 14, 0)), ((15, 1, 0), (10, 1, 0)), ((13, 7, 0), (13, 15, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 7, 0), (1, 9, 0)), ((1, 9, 0), (15, 1, 0)), ((6, 1, 0), (13, 13, 0)), ((6, 1, 0), (8, 4, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 8, 0), (3, 2, 0)), ((11, 8, 0), (3, 2, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((15, 1, 0), (4, 14, 0)), ((14, 2, 0), (12, 6, 0))]</t>
+  </si>
+  <si>
+    <t>[((15, 8, 0), (9, 10, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 12, 0), (4, 5, 0)), ((8, 4, 0), (8, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((10, 5, 0), (6, 14, 0)), ((8, 4, 0), (1, 1, 0)), ((2, 4, 0), (1, 9, 0)), ((10, 1, 0), (4, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((13, 7, 0), (6, 8, 0)), ((11, 8, 0), (6, 9, 0)), ((15, 6, 0), (11, 15, 0)), ((6, 9, 0), (15, 3, 0)), ((1, 9, 0), (15, 1, 0)), ((9, 8, 0), (6, 3, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 1, 0), (13, 13, 0)), ((13, 7, 0), (13, 15, 0)), ((3, 2, 0), (4, 5, 0)), ((4, 5, 0), (2, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((10, 5, 0), (15, 12, 0)), ((15, 1, 0), (4, 14, 0)), ((1, 9, 0), (12, 2, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 8, 0), (3, 2, 0)), ((4, 14, 0), (6, 3, 0)), ((6, 8, 0), (2, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 15, 0), (12, 11, 0)), ((2, 12, 0), (8, 15, 0)), ((12, 3, 0), (11, 8, 0)), ((6, 7, 0), (3, 2, 0)), ((11, 8, 0), (3, 2, 0)), ((6, 14, 0), (9, 8, 0)), ((1, 3, 0), (12, 6, 0)), ((15, 8, 0), (6, 14, 0)), ((7, 6, 0), (2, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((11, 5, 0), (7, 12, 0)), ((9, 13, 0), (10, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((6, 1, 0), (8, 4, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 1, 0), (10, 1, 0)), ((1, 5, 0), (16, 15, 0)), ((7, 8, 0), (9, 8, 0))]</t>
+  </si>
+  <si>
+    <t>[((11, 8, 0), (6, 9, 0)), ((13, 15, 0), (15, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((4, 5, 0), (2, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 1, 0), (4, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((13, 7, 0), (6, 8, 0)), ((10, 5, 0), (15, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 8, 0), (9, 10, 0)), ((6, 14, 0), (9, 8, 0)), ((6, 9, 0), (15, 3, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 12, 0), (4, 5, 0)), ((1, 15, 0), (12, 2, 0)), ((15, 8, 0), (6, 14, 0)), ((4, 14, 0), (6, 3, 0)), ((7, 6, 0), (2, 12, 0)), ((13, 7, 0), (13, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((1, 9, 0), (12, 2, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 8, 0), (2, 12, 0)), ((6, 1, 0), (8, 4, 0)), ((4, 5, 0), (8, 4, 0)), ((12, 6, 0), (1, 1, 0)), ((8, 4, 0), (1, 1, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 6, 0), (11, 15, 0)), ((2, 6, 0), (15, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((10, 1, 0), (4, 12, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 7, 0), (3, 2, 0)), ((10, 5, 0), (6, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((3, 2, 0), (4, 12, 0))]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=2, tm_hour=15, tm_min=44, tm_sec=47, tm_wday=3, tm_yday=122, tm_isdst=1)</t>
   </si>
   <si>
@@ -872,6 +905,75 @@
   </si>
   <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=11, tm_hour=12, tm_min=34, tm_sec=33, tm_wday=5, tm_yday=131, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=9, tm_min=52, tm_sec=33, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=9, tm_min=54, tm_sec=50, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=3, tm_sec=48, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=4, tm_sec=52, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=38, tm_sec=46, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=40, tm_sec=55, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=15, tm_hour=10, tm_min=41, tm_sec=43, tm_wday=2, tm_yday=135, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=12, tm_sec=56, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=19, tm_sec=9, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=28, tm_sec=26, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=33, tm_sec=32, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=53, tm_sec=37, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=16, tm_min=58, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=17, tm_min=12, tm_sec=19, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=3, tm_sec=26, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>[((10, 5, 0), (6, 14, 0)), ((6, 1, 0), (8, 4, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 8, 0), (6, 14, 0)), ((9, 8, 0), (6, 3, 0)), ((13, 7, 0), (13, 15, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 7, 0), (3, 2, 0)), ((10, 1, 0), (4, 12, 0)), ((2, 6, 0), (15, 12, 0))]</t>
+  </si>
+  <si>
+    <t>[((6, 8, 0), (2, 12, 0)), ((7, 8, 0), (9, 8, 0)), ((14, 2, 0), (4, 5, 0)), ((15, 8, 0), (3, 2, 0)), ((7, 6, 0), (2, 12, 0)), ((6, 1, 0), (8, 4, 0))]</t>
+  </si>
+  <si>
+    <t>[((14, 2, 0), (12, 6, 0)), ((3, 2, 0), (4, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 7, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 8, 0), (9, 10, 0))]</t>
+  </si>
+  <si>
+    <t>[((15, 8, 0), (9, 10, 0)), ((12, 6, 0), (1, 1, 0)), ((6, 7, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((3, 2, 0), (4, 12, 0)), ((4, 5, 0), (8, 4, 0))]</t>
+  </si>
+  <si>
+    <t>[((14, 2, 0), (4, 5, 0)), ((12, 3, 0), (11, 8, 0)), ((7, 8, 0), (9, 8, 0)), ((6, 7, 0), (3, 2, 0)), ((9, 8, 0), (6, 3, 0)), ((11, 8, 0), (3, 2, 0)), ((10, 5, 0), (6, 14, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 9, 0), (15, 1, 0)), ((15, 8, 0), (9, 10, 0))]</t>
+  </si>
+  <si>
+    <t>[((1, 3, 0), (12, 6, 0)), ((15, 8, 0), (3, 2, 0)), ((8, 4, 0), (1, 1, 0)), ((9, 13, 0), (10, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((10, 5, 0), (6, 14, 0)), ((6, 7, 0), (3, 2, 0)), ((10, 1, 0), (4, 12, 0)), ((4, 5, 0), (8, 4, 0))]</t>
+  </si>
+  <si>
+    <t>[((14, 2, 0), (12, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 9, 0), (15, 3, 0)), ((8, 4, 0), (8, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((10, 5, 0), (6, 14, 0)), ((6, 1, 0), (13, 13, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 1, 0), (8, 15, 0))]</t>
   </si>
 </sst>
 </file>
@@ -1229,13 +1331,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,8 +1374,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1308,7 +1413,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1343,7 +1448,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1378,7 +1483,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1413,7 +1518,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1448,7 +1553,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1483,7 +1588,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1518,7 +1623,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1553,7 +1658,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1588,7 +1693,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1623,7 +1728,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1658,7 +1763,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1693,7 +1798,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1728,7 +1833,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1763,7 +1868,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1897,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19">
         <v>0.98</v>
@@ -1935,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20">
         <v>0.9714285714285714</v>
@@ -1973,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21">
         <v>0.9571428571428572</v>
@@ -2011,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K22">
         <v>0.9571428571428572</v>
@@ -2049,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23">
         <v>0.9571428571428572</v>
@@ -2087,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K24">
         <v>0.9857142857142858</v>
@@ -2125,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2163,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K26">
         <v>0.9142857142857143</v>
@@ -2201,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K27">
         <v>0.9428571428571428</v>
@@ -2239,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28">
         <v>0.9142857142857143</v>
@@ -2277,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29">
         <v>0.9714285714285714</v>
@@ -2315,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K30">
         <v>0.9428571428571428</v>
@@ -2353,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K31">
         <v>0.9714285714285714</v>
@@ -2391,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32">
         <v>0.9666666666666667</v>
@@ -2429,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33">
         <v>0.9333333333333333</v>
@@ -2467,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2505,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2543,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K36">
         <v>0.9666666666666667</v>
@@ -2581,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2619,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2657,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K39">
         <v>0.96</v>
@@ -2695,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2733,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2771,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -2809,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K43">
         <v>0.9399999999999999</v>
@@ -2847,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -2885,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2923,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2961,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>0.9399999999999999</v>
@@ -2999,7 +3104,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>0.62</v>
@@ -3037,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>0.64</v>
@@ -3075,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>0.68</v>
@@ -3113,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>0.64</v>
@@ -3151,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>0.78</v>
@@ -3189,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>0.66</v>
@@ -3227,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>0.72</v>
@@ -3265,7 +3370,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>0.62</v>
@@ -3303,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>0.66</v>
@@ -3341,7 +3446,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
         <v>0.58</v>
@@ -3379,7 +3484,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58">
         <v>0.62</v>
@@ -3417,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59">
         <v>0.98</v>
@@ -3455,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3493,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3531,7 +3636,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>0.98</v>
@@ -3569,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>0.98</v>
@@ -3607,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>0.98</v>
@@ -3645,7 +3750,7 @@
         <v>7</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>0.7</v>
@@ -3683,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>0.78</v>
@@ -3721,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>0.72</v>
@@ -3759,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>0.98</v>
@@ -3797,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>0.98</v>
@@ -3835,7 +3940,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K70">
         <v>0.9833333333333333</v>
@@ -3873,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K71">
         <v>0.9833333333333333</v>
@@ -3911,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K72">
         <v>0.9714285714285714</v>
@@ -3920,7 +4025,7 @@
         <v>1558</v>
       </c>
       <c r="M72" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3952,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K73">
         <v>0.9571428571428572</v>
@@ -3961,7 +4066,7 @@
         <v>1571</v>
       </c>
       <c r="M73" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3993,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K74">
         <v>0.82</v>
@@ -4002,7 +4107,7 @@
         <v>894</v>
       </c>
       <c r="M74" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4034,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K75">
         <v>0.8</v>
@@ -4043,7 +4148,7 @@
         <v>959</v>
       </c>
       <c r="M75" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4075,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K76">
         <v>0.86</v>
@@ -4084,7 +4189,7 @@
         <v>964</v>
       </c>
       <c r="M76" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4116,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K77">
         <v>0.82</v>
@@ -4125,7 +4230,7 @@
         <v>924</v>
       </c>
       <c r="M77" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4157,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K78">
         <v>0.88</v>
@@ -4166,7 +4271,7 @@
         <v>970</v>
       </c>
       <c r="M78" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4198,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K79">
         <v>0.84</v>
@@ -4207,7 +4312,7 @@
         <v>966</v>
       </c>
       <c r="M79" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4239,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K80">
         <v>0.78</v>
@@ -4248,7 +4353,7 @@
         <v>906</v>
       </c>
       <c r="M80" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4280,7 +4385,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K81">
         <v>0.84</v>
@@ -4289,7 +4394,7 @@
         <v>939</v>
       </c>
       <c r="M81" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4321,7 +4426,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K82">
         <v>0.82</v>
@@ -4330,7 +4435,7 @@
         <v>959</v>
       </c>
       <c r="M82" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4362,7 +4467,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K83">
         <v>0.88</v>
@@ -4371,7 +4476,7 @@
         <v>1006</v>
       </c>
       <c r="M83" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4403,7 +4508,7 @@
         <v>5</v>
       </c>
       <c r="J84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K84">
         <v>0.84</v>
@@ -4412,7 +4517,7 @@
         <v>1077</v>
       </c>
       <c r="M84" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4444,7 +4549,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K85">
         <v>0.84</v>
@@ -4453,7 +4558,7 @@
         <v>944</v>
       </c>
       <c r="M85" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4485,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K86">
         <v>0.8</v>
@@ -4494,7 +4599,7 @@
         <v>842</v>
       </c>
       <c r="M86" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4526,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K87">
         <v>0.88</v>
@@ -4535,7 +4640,7 @@
         <v>1063</v>
       </c>
       <c r="M87" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4567,7 +4672,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K88">
         <v>0.84</v>
@@ -4576,7 +4681,7 @@
         <v>936</v>
       </c>
       <c r="M88" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4608,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K89">
         <v>0.8</v>
@@ -4617,7 +4722,7 @@
         <v>933</v>
       </c>
       <c r="M89" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4649,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K90">
         <v>0.84</v>
@@ -4658,7 +4763,7 @@
         <v>916</v>
       </c>
       <c r="M90" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4690,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K91">
         <v>0.78</v>
@@ -4699,7 +4804,7 @@
         <v>900</v>
       </c>
       <c r="M91" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4731,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="J92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K92">
         <v>0.82</v>
@@ -4740,7 +4845,7 @@
         <v>940</v>
       </c>
       <c r="M92" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4772,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K93">
         <v>0.88</v>
@@ -4781,7 +4886,7 @@
         <v>997</v>
       </c>
       <c r="M93" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4813,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K94">
         <v>0.84</v>
@@ -4822,7 +4927,7 @@
         <v>1012</v>
       </c>
       <c r="M94" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4854,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K95">
         <v>0.8</v>
@@ -4863,7 +4968,7 @@
         <v>945</v>
       </c>
       <c r="M95" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4895,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K96">
         <v>0.84</v>
@@ -4904,7 +5009,7 @@
         <v>1067</v>
       </c>
       <c r="M96" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4936,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K97">
         <v>0.82</v>
@@ -4945,7 +5050,7 @@
         <v>973</v>
       </c>
       <c r="M97" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4977,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K98">
         <v>0.82</v>
@@ -4986,7 +5091,7 @@
         <v>938</v>
       </c>
       <c r="M98" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5018,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K99">
         <v>0.82</v>
@@ -5027,7 +5132,7 @@
         <v>875</v>
       </c>
       <c r="M99" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5059,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K100">
         <v>0.8</v>
@@ -5068,7 +5173,7 @@
         <v>897</v>
       </c>
       <c r="M100" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5100,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K101">
         <v>0.84</v>
@@ -5109,7 +5214,7 @@
         <v>975</v>
       </c>
       <c r="M101" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5141,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K102">
         <v>0.74</v>
@@ -5150,7 +5255,7 @@
         <v>860</v>
       </c>
       <c r="M102" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5182,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K103">
         <v>0.82</v>
@@ -5191,7 +5296,7 @@
         <v>993</v>
       </c>
       <c r="M103" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5223,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K104">
         <v>0.82</v>
@@ -5232,7 +5337,7 @@
         <v>913</v>
       </c>
       <c r="M104" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5264,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K105">
         <v>0.78</v>
@@ -5273,7 +5378,7 @@
         <v>946</v>
       </c>
       <c r="M105" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5305,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K106">
         <v>0.86</v>
@@ -5314,7 +5419,7 @@
         <v>1077</v>
       </c>
       <c r="M106" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5346,7 +5451,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K107">
         <v>0.78</v>
@@ -5355,7 +5460,7 @@
         <v>872</v>
       </c>
       <c r="M107" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5387,7 +5492,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K108">
         <v>0.9</v>
@@ -5396,7 +5501,7 @@
         <v>1066</v>
       </c>
       <c r="M108" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5428,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K109">
         <v>0.8</v>
@@ -5437,7 +5542,7 @@
         <v>889</v>
       </c>
       <c r="M109" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5469,7 +5574,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K110">
         <v>0.8</v>
@@ -5478,7 +5583,7 @@
         <v>930</v>
       </c>
       <c r="M110" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5510,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K111">
         <v>0.82</v>
@@ -5519,7 +5624,7 @@
         <v>1024</v>
       </c>
       <c r="M111" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5551,7 +5656,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K112">
         <v>0.76</v>
@@ -5560,7 +5665,7 @@
         <v>927</v>
       </c>
       <c r="M112" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5592,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K113">
         <v>0.82</v>
@@ -5601,7 +5706,7 @@
         <v>913</v>
       </c>
       <c r="M113" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5633,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K114">
         <v>0.86</v>
@@ -5642,7 +5747,7 @@
         <v>1095</v>
       </c>
       <c r="M114" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5674,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K115">
         <v>0.84</v>
@@ -5683,7 +5788,7 @@
         <v>982</v>
       </c>
       <c r="M115" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5715,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K116">
         <v>0.82</v>
@@ -5724,7 +5829,7 @@
         <v>940</v>
       </c>
       <c r="M116" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5756,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K117">
         <v>0.82</v>
@@ -5765,7 +5870,7 @@
         <v>965</v>
       </c>
       <c r="M117" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5797,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K118">
         <v>0.84</v>
@@ -5806,7 +5911,7 @@
         <v>940</v>
       </c>
       <c r="M118" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5838,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K119">
         <v>0.84</v>
@@ -5847,7 +5952,7 @@
         <v>961</v>
       </c>
       <c r="M119" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5879,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K120">
         <v>0.82</v>
@@ -5888,7 +5993,7 @@
         <v>1002</v>
       </c>
       <c r="M120" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5920,7 +6025,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K121">
         <v>0.82</v>
@@ -5929,7 +6034,7 @@
         <v>1021</v>
       </c>
       <c r="M121" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -5961,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K122">
         <v>0.78</v>
@@ -5970,7 +6075,7 @@
         <v>890</v>
       </c>
       <c r="M122" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6002,7 +6107,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K123">
         <v>0.76</v>
@@ -6011,7 +6116,7 @@
         <v>921</v>
       </c>
       <c r="M123" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6043,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K124">
         <v>0.82</v>
@@ -6052,7 +6157,7 @@
         <v>993</v>
       </c>
       <c r="M124" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6084,7 +6189,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K125">
         <v>0.84</v>
@@ -6093,7 +6198,7 @@
         <v>1028</v>
       </c>
       <c r="M125" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6125,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K126">
         <v>0.82</v>
@@ -6134,7 +6239,7 @@
         <v>1039</v>
       </c>
       <c r="M126" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6166,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K127">
         <v>0.8</v>
@@ -6175,7 +6280,7 @@
         <v>963</v>
       </c>
       <c r="M127" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6207,7 +6312,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K128">
         <v>0.8</v>
@@ -6216,7 +6321,7 @@
         <v>943</v>
       </c>
       <c r="M128" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6248,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K129">
         <v>0.8</v>
@@ -6257,7 +6362,7 @@
         <v>978</v>
       </c>
       <c r="M129" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6289,7 +6394,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K130">
         <v>0.78</v>
@@ -6298,7 +6403,7 @@
         <v>1035</v>
       </c>
       <c r="M130" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6330,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K131">
         <v>0.8</v>
@@ -6339,7 +6444,7 @@
         <v>978</v>
       </c>
       <c r="M131" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6371,7 +6476,7 @@
         <v>3</v>
       </c>
       <c r="J132" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K132">
         <v>0.82</v>
@@ -6380,7 +6485,7 @@
         <v>879</v>
       </c>
       <c r="M132" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6412,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K133">
         <v>0.78</v>
@@ -6421,7 +6526,7 @@
         <v>852</v>
       </c>
       <c r="M133" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6453,7 +6558,7 @@
         <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K134">
         <v>0.72</v>
@@ -6462,7 +6567,7 @@
         <v>818</v>
       </c>
       <c r="M134" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6494,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K135">
         <v>0.8</v>
@@ -6503,7 +6608,7 @@
         <v>971</v>
       </c>
       <c r="M135" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6535,7 +6640,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K136">
         <v>0.8</v>
@@ -6544,7 +6649,7 @@
         <v>950</v>
       </c>
       <c r="M136" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6576,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K137">
         <v>0.78</v>
@@ -6585,7 +6690,7 @@
         <v>891</v>
       </c>
       <c r="M137" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6617,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K138">
         <v>0.84</v>
@@ -6626,7 +6731,7 @@
         <v>1002</v>
       </c>
       <c r="M138" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6658,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K139">
         <v>0.78</v>
@@ -6667,7 +6772,7 @@
         <v>961</v>
       </c>
       <c r="M139" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6699,7 +6804,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K140">
         <v>0.82</v>
@@ -6708,7 +6813,7 @@
         <v>901</v>
       </c>
       <c r="M140" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6740,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K141">
         <v>0.84</v>
@@ -6749,7 +6854,7 @@
         <v>1058</v>
       </c>
       <c r="M141" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6781,7 +6886,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K142">
         <v>0.84</v>
@@ -6790,7 +6895,7 @@
         <v>879</v>
       </c>
       <c r="M142" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6822,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K143">
         <v>0.86</v>
@@ -6831,7 +6936,7 @@
         <v>927</v>
       </c>
       <c r="M143" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6863,7 +6968,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K144">
         <v>0.8</v>
@@ -6872,7 +6977,7 @@
         <v>922</v>
       </c>
       <c r="M144" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -6904,7 +7009,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K145">
         <v>0.88</v>
@@ -6913,7 +7018,7 @@
         <v>945</v>
       </c>
       <c r="M145" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -6945,7 +7050,7 @@
         <v>3</v>
       </c>
       <c r="J146" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K146">
         <v>0.88</v>
@@ -6954,7 +7059,7 @@
         <v>1118</v>
       </c>
       <c r="M146" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -6986,7 +7091,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K147">
         <v>0.88</v>
@@ -6995,7 +7100,7 @@
         <v>1009</v>
       </c>
       <c r="M147" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7027,7 +7132,7 @@
         <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K148">
         <v>0.82</v>
@@ -7036,7 +7141,7 @@
         <v>902</v>
       </c>
       <c r="M148" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7068,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K149">
         <v>0.82</v>
@@ -7077,7 +7182,7 @@
         <v>985</v>
       </c>
       <c r="M149" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7109,7 +7214,7 @@
         <v>5</v>
       </c>
       <c r="J150" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K150">
         <v>0.82</v>
@@ -7118,7 +7223,7 @@
         <v>1057</v>
       </c>
       <c r="M150" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7150,7 +7255,7 @@
         <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K151">
         <v>0.82</v>
@@ -7159,7 +7264,7 @@
         <v>925</v>
       </c>
       <c r="M151" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7191,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K152">
         <v>0.84</v>
@@ -7200,7 +7305,7 @@
         <v>992</v>
       </c>
       <c r="M152" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7232,7 +7337,7 @@
         <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K153">
         <v>0.78</v>
@@ -7241,7 +7346,7 @@
         <v>962</v>
       </c>
       <c r="M153" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7273,7 +7378,7 @@
         <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K154">
         <v>0.8</v>
@@ -7282,7 +7387,7 @@
         <v>889</v>
       </c>
       <c r="M154" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7314,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K155">
         <v>0.82</v>
@@ -7323,7 +7428,7 @@
         <v>925</v>
       </c>
       <c r="M155" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7355,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="J156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K156">
         <v>0.8</v>
@@ -7364,7 +7469,7 @@
         <v>963</v>
       </c>
       <c r="M156" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7396,7 +7501,7 @@
         <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K157">
         <v>0.84</v>
@@ -7405,7 +7510,7 @@
         <v>898</v>
       </c>
       <c r="M157" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7437,7 +7542,7 @@
         <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K158">
         <v>0.86</v>
@@ -7446,7 +7551,7 @@
         <v>1001</v>
       </c>
       <c r="M158" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7478,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K159">
         <v>0.78</v>
@@ -7487,7 +7592,7 @@
         <v>901</v>
       </c>
       <c r="M159" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7519,7 +7624,7 @@
         <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K160">
         <v>0.78</v>
@@ -7528,7 +7633,7 @@
         <v>957</v>
       </c>
       <c r="M160" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7560,7 +7665,7 @@
         <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K161">
         <v>0.88</v>
@@ -7569,7 +7674,7 @@
         <v>1164</v>
       </c>
       <c r="M161" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7601,7 +7706,7 @@
         <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K162">
         <v>0.8</v>
@@ -7610,7 +7715,7 @@
         <v>968</v>
       </c>
       <c r="M162" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7642,7 +7747,7 @@
         <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K163">
         <v>0.76</v>
@@ -7651,7 +7756,7 @@
         <v>840</v>
       </c>
       <c r="M163" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7683,7 +7788,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K164">
         <v>0.84</v>
@@ -7692,7 +7797,7 @@
         <v>942</v>
       </c>
       <c r="M164" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7724,7 +7829,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K165">
         <v>0.76</v>
@@ -7733,7 +7838,7 @@
         <v>897</v>
       </c>
       <c r="M165" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7765,7 +7870,7 @@
         <v>3</v>
       </c>
       <c r="J166" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K166">
         <v>0.86</v>
@@ -7774,7 +7879,7 @@
         <v>949</v>
       </c>
       <c r="M166" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7806,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K167">
         <v>0.8</v>
@@ -7815,7 +7920,7 @@
         <v>896</v>
       </c>
       <c r="M167" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7847,7 +7952,7 @@
         <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K168">
         <v>0.82</v>
@@ -7856,7 +7961,7 @@
         <v>981</v>
       </c>
       <c r="M168" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -7888,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K169">
         <v>0.82</v>
@@ -7897,7 +8002,7 @@
         <v>968</v>
       </c>
       <c r="M169" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -7929,7 +8034,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K170">
         <v>0.82</v>
@@ -7938,7 +8043,7 @@
         <v>956</v>
       </c>
       <c r="M170" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -7970,7 +8075,7 @@
         <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K171">
         <v>0.78</v>
@@ -7979,7 +8084,7 @@
         <v>964</v>
       </c>
       <c r="M171" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8011,7 +8116,7 @@
         <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K172">
         <v>0.84</v>
@@ -8020,7 +8125,7 @@
         <v>1003</v>
       </c>
       <c r="M172" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8052,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K173">
         <v>0.8</v>
@@ -8061,7 +8166,7 @@
         <v>945</v>
       </c>
       <c r="M173" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8093,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K174">
         <v>0.8</v>
@@ -8102,7 +8207,7 @@
         <v>947</v>
       </c>
       <c r="M174" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8134,7 +8239,7 @@
         <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K175">
         <v>0.82</v>
@@ -8143,7 +8248,7 @@
         <v>956</v>
       </c>
       <c r="M175" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8175,7 +8280,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K176">
         <v>0.82</v>
@@ -8184,7 +8289,7 @@
         <v>1045</v>
       </c>
       <c r="M176" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8216,7 +8321,7 @@
         <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K177">
         <v>0.78</v>
@@ -8225,7 +8330,7 @@
         <v>823</v>
       </c>
       <c r="M177" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8257,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K178">
         <v>0.82</v>
@@ -8266,7 +8371,7 @@
         <v>960</v>
       </c>
       <c r="M178" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8298,7 +8403,7 @@
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K179">
         <v>0.86</v>
@@ -8307,7 +8412,7 @@
         <v>1007</v>
       </c>
       <c r="M179" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8339,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K180">
         <v>0.8</v>
@@ -8348,7 +8453,7 @@
         <v>978</v>
       </c>
       <c r="M180" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8380,7 +8485,7 @@
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K181">
         <v>0.84</v>
@@ -8389,7 +8494,7 @@
         <v>978</v>
       </c>
       <c r="M181" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8421,7 +8526,7 @@
         <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K182">
         <v>0.86</v>
@@ -8430,7 +8535,7 @@
         <v>926</v>
       </c>
       <c r="M182" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8462,7 +8567,7 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K183">
         <v>0.8</v>
@@ -8471,7 +8576,7 @@
         <v>889</v>
       </c>
       <c r="M183" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8503,7 +8608,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K184">
         <v>0.8</v>
@@ -8512,7 +8617,7 @@
         <v>1025</v>
       </c>
       <c r="M184" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8544,7 +8649,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K185">
         <v>0.82</v>
@@ -8553,7 +8658,7 @@
         <v>891</v>
       </c>
       <c r="M185" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8585,7 +8690,7 @@
         <v>3</v>
       </c>
       <c r="J186" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K186">
         <v>0.8</v>
@@ -8594,7 +8699,646 @@
         <v>972</v>
       </c>
       <c r="M186" t="s">
-        <v>285</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>16.74639630317688</v>
+      </c>
+      <c r="C187">
+        <v>1.529715762273902</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>19.09677419354839</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187">
+        <v>31</v>
+      </c>
+      <c r="H187">
+        <v>27</v>
+      </c>
+      <c r="I187">
+        <v>3</v>
+      </c>
+      <c r="J187" t="s">
+        <v>172</v>
+      </c>
+      <c r="K187">
+        <v>0.62</v>
+      </c>
+      <c r="L187">
+        <v>592</v>
+      </c>
+      <c r="M187" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>104.1462087631226</v>
+      </c>
+      <c r="C188">
+        <v>1.906666666666667</v>
+      </c>
+      <c r="D188">
+        <v>51</v>
+      </c>
+      <c r="E188">
+        <v>22.88</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="G188">
+        <v>16</v>
+      </c>
+      <c r="H188">
+        <v>29</v>
+      </c>
+      <c r="I188">
+        <v>3</v>
+      </c>
+      <c r="J188" t="s">
+        <v>173</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1144</v>
+      </c>
+      <c r="M188" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>102.544127702713</v>
+      </c>
+      <c r="C189">
+        <v>1.729776247848537</v>
+      </c>
+      <c r="D189">
+        <v>43</v>
+      </c>
+      <c r="E189">
+        <v>20.9375</v>
+      </c>
+      <c r="F189">
+        <v>4</v>
+      </c>
+      <c r="G189">
+        <v>13</v>
+      </c>
+      <c r="H189">
+        <v>28</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189" t="s">
+        <v>174</v>
+      </c>
+      <c r="K189">
+        <v>0.96</v>
+      </c>
+      <c r="L189">
+        <v>1005</v>
+      </c>
+      <c r="M189" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>19.23694896697998</v>
+      </c>
+      <c r="C190">
+        <v>1.490476190476191</v>
+      </c>
+      <c r="D190">
+        <v>37</v>
+      </c>
+      <c r="E190">
+        <v>19.5625</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+      <c r="G190">
+        <v>11</v>
+      </c>
+      <c r="H190">
+        <v>22</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190" t="s">
+        <v>175</v>
+      </c>
+      <c r="K190">
+        <v>0.64</v>
+      </c>
+      <c r="L190">
+        <v>626</v>
+      </c>
+      <c r="M190" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>18.62787747383118</v>
+      </c>
+      <c r="C191">
+        <v>1.471563981042654</v>
+      </c>
+      <c r="D191">
+        <v>37</v>
+      </c>
+      <c r="E191">
+        <v>18.81818181818182</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="G191">
+        <v>22</v>
+      </c>
+      <c r="H191">
+        <v>11</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
+      </c>
+      <c r="J191" t="s">
+        <v>176</v>
+      </c>
+      <c r="K191">
+        <v>0.66</v>
+      </c>
+      <c r="L191">
+        <v>621</v>
+      </c>
+      <c r="M191" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>15.79193544387817</v>
+      </c>
+      <c r="C192">
+        <v>1.486842105263158</v>
+      </c>
+      <c r="D192">
+        <v>33</v>
+      </c>
+      <c r="E192">
+        <v>18.2258064516129</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
+      </c>
+      <c r="G192">
+        <v>28</v>
+      </c>
+      <c r="H192">
+        <v>20</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192" t="s">
+        <v>177</v>
+      </c>
+      <c r="K192">
+        <v>0.62</v>
+      </c>
+      <c r="L192">
+        <v>565</v>
+      </c>
+      <c r="M192" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>17.14817190170288</v>
+      </c>
+      <c r="C193">
+        <v>1.521628498727735</v>
+      </c>
+      <c r="D193">
+        <v>36</v>
+      </c>
+      <c r="E193">
+        <v>20.62068965517241</v>
+      </c>
+      <c r="F193">
+        <v>4</v>
+      </c>
+      <c r="G193">
+        <v>16</v>
+      </c>
+      <c r="H193">
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <v>3</v>
+      </c>
+      <c r="J193" t="s">
+        <v>178</v>
+      </c>
+      <c r="K193">
+        <v>0.58</v>
+      </c>
+      <c r="L193">
+        <v>598</v>
+      </c>
+      <c r="M193" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>232.8794767856598</v>
+      </c>
+      <c r="C194">
+        <v>1.509569377990431</v>
+      </c>
+      <c r="D194">
+        <v>36</v>
+      </c>
+      <c r="E194">
+        <v>17.05405405405405</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="G194">
+        <v>14</v>
+      </c>
+      <c r="H194">
+        <v>33</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194" t="s">
+        <v>179</v>
+      </c>
+      <c r="K194">
+        <v>0.74</v>
+      </c>
+      <c r="L194">
+        <v>631</v>
+      </c>
+      <c r="M194" t="s">
+        <v>304</v>
+      </c>
+      <c r="N194" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>346.9098534584045</v>
+      </c>
+      <c r="C195">
+        <v>1.644567219152854</v>
+      </c>
+      <c r="D195">
+        <v>48</v>
+      </c>
+      <c r="E195">
+        <v>20.29545454545455</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195">
+        <v>25</v>
+      </c>
+      <c r="H195">
+        <v>25</v>
+      </c>
+      <c r="I195">
+        <v>5</v>
+      </c>
+      <c r="J195" t="s">
+        <v>180</v>
+      </c>
+      <c r="K195">
+        <v>0.88</v>
+      </c>
+      <c r="L195">
+        <v>893</v>
+      </c>
+      <c r="M195" t="s">
+        <v>305</v>
+      </c>
+      <c r="N195" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>255.514817237854</v>
+      </c>
+      <c r="C196">
+        <v>1.790055248618785</v>
+      </c>
+      <c r="D196">
+        <v>43</v>
+      </c>
+      <c r="E196">
+        <v>22.6046511627907</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+      <c r="G196">
+        <v>18</v>
+      </c>
+      <c r="H196">
+        <v>33</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196" t="s">
+        <v>146</v>
+      </c>
+      <c r="K196">
+        <v>0.86</v>
+      </c>
+      <c r="L196">
+        <v>972</v>
+      </c>
+      <c r="M196" t="s">
+        <v>306</v>
+      </c>
+      <c r="N196" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>257.4765520095825</v>
+      </c>
+      <c r="C197">
+        <v>1.75609756097561</v>
+      </c>
+      <c r="D197">
+        <v>43</v>
+      </c>
+      <c r="E197">
+        <v>21.76744186046512</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197">
+        <v>18</v>
+      </c>
+      <c r="H197">
+        <v>33</v>
+      </c>
+      <c r="I197">
+        <v>3</v>
+      </c>
+      <c r="J197" t="s">
+        <v>146</v>
+      </c>
+      <c r="K197">
+        <v>0.86</v>
+      </c>
+      <c r="L197">
+        <v>936</v>
+      </c>
+      <c r="M197" t="s">
+        <v>307</v>
+      </c>
+      <c r="N197" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>169.8012466430664</v>
+      </c>
+      <c r="C198">
+        <v>1.460820895522388</v>
+      </c>
+      <c r="D198">
+        <v>31</v>
+      </c>
+      <c r="E198">
+        <v>18.20930232558139</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="G198">
+        <v>14</v>
+      </c>
+      <c r="H198">
+        <v>20</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>146</v>
+      </c>
+      <c r="K198">
+        <v>0.86</v>
+      </c>
+      <c r="L198">
+        <v>783</v>
+      </c>
+      <c r="M198" t="s">
+        <v>308</v>
+      </c>
+      <c r="N198" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>197.2679409980774</v>
+      </c>
+      <c r="C199">
+        <v>1.87719298245614</v>
+      </c>
+      <c r="D199">
+        <v>42</v>
+      </c>
+      <c r="E199">
+        <v>22.29166666666667</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199">
+        <v>15</v>
+      </c>
+      <c r="H199">
+        <v>35</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199" t="s">
+        <v>146</v>
+      </c>
+      <c r="K199">
+        <v>0.96</v>
+      </c>
+      <c r="L199">
+        <v>1070</v>
+      </c>
+      <c r="M199" t="s">
+        <v>309</v>
+      </c>
+      <c r="N199" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>685.500524520874</v>
+      </c>
+      <c r="C200">
+        <v>1.711422845691383</v>
+      </c>
+      <c r="D200">
+        <v>50</v>
+      </c>
+      <c r="E200">
+        <v>20.82926829268293</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200">
+        <v>20</v>
+      </c>
+      <c r="H200">
+        <v>31</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200" t="s">
+        <v>181</v>
+      </c>
+      <c r="K200">
+        <v>0.82</v>
+      </c>
+      <c r="L200">
+        <v>854</v>
+      </c>
+      <c r="M200" t="s">
+        <v>310</v>
+      </c>
+      <c r="N200" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>18.32262992858887</v>
+      </c>
+      <c r="C201">
+        <v>1.633771929824561</v>
+      </c>
+      <c r="D201">
+        <v>41</v>
+      </c>
+      <c r="E201">
+        <v>19.1025641025641</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="G201">
+        <v>13</v>
+      </c>
+      <c r="H201">
+        <v>30</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+      <c r="J201" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201">
+        <v>0.78</v>
+      </c>
+      <c r="L201">
+        <v>745</v>
+      </c>
+      <c r="M201" t="s">
+        <v>311</v>
+      </c>
+      <c r="N201" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/chipSolver/Book1.xlsx
+++ b/chipSolver/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="345">
   <si>
     <t>cal_time</t>
   </si>
@@ -562,6 +562,12 @@
     <t>[((11, 8, 0), (6, 9, 0)), ((13, 15, 0), (15, 1, 0)), ((11, 5, 0), (7, 12, 0)), ((15, 1, 0), (10, 1, 0)), ((4, 5, 0), (2, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 1, 0), (4, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((13, 7, 0), (6, 8, 0)), ((10, 5, 0), (15, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 15, 0), (12, 11, 0)), ((15, 8, 0), (9, 10, 0)), ((6, 14, 0), (9, 8, 0)), ((6, 9, 0), (15, 3, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 12, 0), (4, 5, 0)), ((1, 15, 0), (12, 2, 0)), ((15, 8, 0), (6, 14, 0)), ((4, 14, 0), (6, 3, 0)), ((7, 6, 0), (2, 12, 0)), ((13, 7, 0), (13, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((1, 9, 0), (12, 2, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 8, 0), (2, 12, 0)), ((6, 1, 0), (8, 4, 0)), ((4, 5, 0), (8, 4, 0)), ((12, 6, 0), (1, 1, 0)), ((8, 4, 0), (1, 1, 0)), ((16, 7, 0), (16, 5, 0)), ((15, 6, 0), (11, 15, 0)), ((2, 6, 0), (15, 12, 0)), ((16, 15, 0), (15, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((10, 1, 0), (4, 12, 0)), ((12, 3, 0), (11, 8, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 8, 0), (3, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((9, 13, 0), (10, 6, 0)), ((1, 5, 0), (16, 15, 0)), ((6, 7, 0), (3, 2, 0)), ((10, 5, 0), (6, 14, 0)), ((2, 12, 0), (8, 15, 0)), ((3, 2, 0), (4, 12, 0))]</t>
   </si>
   <si>
+    <t>[((14, 2, 0), (12, 6, 0)), ((15, 8, 0), (3, 2, 0)), ((14, 2, 0), (4, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((12, 6, 0), (1, 1, 0)), ((3, 2, 0), (4, 12, 0)), ((15, 6, 0), (11, 15, 0)), ((15, 1, 0), (4, 14, 0)), ((13, 7, 0), (13, 15, 0)), ((1, 5, 0), (16, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((16, 15, 0), (15, 6, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 1, 0), (10, 1, 0)), ((11, 8, 0), (6, 9, 0)), ((10, 5, 0), (15, 12, 0)), ((2, 6, 0), (15, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((1, 9, 0), (15, 1, 0)), ((1, 1, 0), (8, 15, 0)), ((4, 5, 0), (2, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((10, 1, 0), (4, 12, 0)), ((8, 4, 0), (8, 15, 0)), ((7, 6, 0), (2, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((1, 3, 0), (12, 6, 0)), ((15, 8, 0), (9, 10, 0)), ((6, 15, 0), (12, 11, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 9, 0), (15, 3, 0)), ((9, 13, 0), (10, 6, 0)), ((4, 14, 0), (6, 3, 0)), ((6, 7, 0), (3, 2, 0)), ((9, 8, 0), (6, 3, 0)), ((2, 4, 0), (1, 9, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 14, 0), (9, 8, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 12, 0), (4, 5, 0)), ((12, 3, 0), (11, 8, 0)), ((8, 4, 0), (1, 1, 0)), ((10, 5, 0), (6, 14, 0)), ((1, 9, 0), (12, 2, 0)), ((3, 2, 0), (4, 5, 0)), ((1, 15, 0), (12, 2, 0)), ((11, 8, 0), (3, 2, 0)), ((2, 12, 0), (8, 15, 0)), ((6, 1, 0), (8, 4, 0))]</t>
+  </si>
+  <si>
+    <t>[((4, 5, 0), (2, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 8, 0), (3, 2, 0)), ((12, 6, 0), (1, 1, 0)), ((13, 7, 0), (6, 8, 0)), ((2, 12, 0), (8, 15, 0)), ((2, 6, 0), (15, 12, 0)), ((1, 9, 0), (12, 2, 0)), ((7, 6, 0), (2, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((11, 8, 0), (3, 2, 0)), ((6, 1, 0), (13, 13, 0)), ((6, 15, 0), (12, 11, 0)), ((10, 5, 0), (6, 14, 0)), ((15, 6, 0), (11, 15, 0)), ((1, 1, 0), (8, 15, 0)), ((6, 9, 0), (15, 3, 0)), ((11, 8, 0), (6, 9, 0)), ((15, 1, 0), (10, 1, 0)), ((10, 5, 0), (15, 12, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 3, 0), (12, 6, 0)), ((4, 5, 0), (8, 4, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((9, 8, 0), (6, 3, 0)), ((16, 15, 0), (15, 6, 0)), ((6, 7, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((12, 3, 0), (11, 8, 0)), ((7, 8, 0), (9, 8, 0)), ((15, 12, 0), (4, 5, 0)), ((8, 4, 0), (1, 1, 0)), ((3, 2, 0), (4, 12, 0)), ((8, 4, 0), (8, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((13, 7, 0), (13, 15, 0)), ((6, 1, 0), (8, 4, 0)), ((9, 13, 0), (10, 6, 0)), ((6, 14, 0), (9, 8, 0)), ((14, 2, 0), (4, 5, 0)), ((10, 1, 0), (4, 12, 0)), ((13, 15, 0), (15, 1, 0)), ((4, 14, 0), (6, 3, 0)), ((15, 8, 0), (9, 10, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 1, 0), (4, 14, 0))]</t>
+  </si>
+  <si>
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=2, tm_hour=15, tm_min=44, tm_sec=47, tm_wday=3, tm_yday=122, tm_isdst=1)</t>
   </si>
   <si>
@@ -952,6 +958,60 @@
     <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=18, tm_min=3, tm_sec=26, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
   </si>
   <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=4, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=5, tm_sec=7, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=14, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=24, tm_sec=32, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=29, tm_sec=14, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=29, tm_sec=41, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=30, tm_sec=23, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=31, tm_sec=1, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=31, tm_sec=22, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=32, tm_sec=0, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=34, tm_sec=10, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=36, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=36, tm_sec=52, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=37, tm_sec=14, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=37, tm_sec=28, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=37, tm_sec=42, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=38, tm_sec=6, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
+    <t>time.struct_time(tm_year=2019, tm_mon=5, tm_mday=16, tm_hour=19, tm_min=38, tm_sec=13, tm_wday=3, tm_yday=136, tm_isdst=1)</t>
+  </si>
+  <si>
     <t>[((10, 5, 0), (6, 14, 0)), ((6, 1, 0), (8, 4, 0)), ((8, 4, 0), (8, 15, 0)), ((6, 1, 0), (13, 13, 0)), ((16, 7, 0), (1, 9, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 8, 0), (6, 14, 0)), ((9, 8, 0), (6, 3, 0)), ((13, 7, 0), (13, 15, 0)), ((1, 15, 0), (12, 2, 0)), ((6, 7, 0), (3, 2, 0)), ((10, 1, 0), (4, 12, 0)), ((2, 6, 0), (15, 12, 0))]</t>
   </si>
   <si>
@@ -974,6 +1034,21 @@
   </si>
   <si>
     <t>[((14, 2, 0), (12, 6, 0)), ((2, 6, 0), (15, 12, 0)), ((6, 9, 0), (15, 3, 0)), ((8, 4, 0), (8, 15, 0)), ((15, 8, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((10, 5, 0), (6, 14, 0)), ((6, 1, 0), (13, 13, 0)), ((11, 8, 0), (6, 9, 0)), ((1, 1, 0), (8, 15, 0))]</t>
+  </si>
+  <si>
+    <t>[((3, 2, 0), (4, 5, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 1, 0), (8, 4, 0)), ((15, 1, 0), (10, 1, 0)), ((14, 2, 0), (12, 6, 0)), ((2, 4, 0), (1, 9, 0)), ((11, 8, 0), (6, 9, 0)), ((12, 3, 0), (11, 8, 0)), ((13, 7, 0), (13, 15, 0)), ((9, 13, 0), (10, 6, 0)), ((13, 7, 0), (6, 8, 0)), ((6, 8, 0), (2, 12, 0)), ((9, 8, 0), (6, 3, 0)), ((6, 7, 0), (3, 2, 0)), ((15, 8, 0), (9, 10, 0)), ((4, 5, 0), (2, 12, 0)), ((6, 14, 0), (9, 8, 0)), ((2, 12, 0), (8, 15, 0)), ((16, 15, 0), (15, 6, 0)), ((8, 4, 0), (1, 1, 0)), ((6, 15, 0), (12, 11, 0)), ((8, 4, 0), (8, 15, 0)), ((7, 6, 0), (2, 12, 0)), ((11, 5, 0), (7, 12, 0)), ((3, 2, 0), (4, 12, 0)), ((10, 5, 0), (15, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((15, 6, 0), (11, 15, 0)), ((4, 14, 0), (6, 3, 0)), ((10, 5, 0), (6, 14, 0)), ((1, 3, 0), (12, 6, 0)), ((11, 8, 0), (3, 2, 0)), ((6, 9, 0), (15, 3, 0)), ((15, 8, 0), (6, 14, 0)), ((13, 15, 0), (15, 1, 0)), ((12, 6, 0), (1, 1, 0)), ((10, 1, 0), (4, 12, 0)), ((16, 7, 0), (1, 9, 0)), ((1, 9, 0), (12, 2, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((6, 1, 0), (13, 13, 0)), ((2, 6, 0), (15, 12, 0)), ((1, 1, 0), (8, 15, 0)), ((1, 9, 0), (15, 1, 0)), ((15, 1, 0), (4, 14, 0)), ((1, 15, 0), (12, 2, 0)), ((1, 5, 0), (16, 15, 0))]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[((6, 14, 0), (9, 8, 0)), ((11, 5, 0), (7, 12, 0)), ((14, 2, 0), (4, 5, 0)), ((10, 5, 0), (6, 14, 0)), ((11, 8, 0), (3, 2, 0)), ((15, 8, 0), (6, 14, 0)), ((12, 6, 0), (1, 1, 0)), ((15, 8, 0), (3, 2, 0)), ((15, 12, 0), (4, 5, 0)), ((1, 5, 0), (16, 15, 0))]</t>
+  </si>
+  <si>
+    <t>[((13, 7, 0), (13, 15, 0)), ((13, 7, 0), (6, 8, 0)), ((2, 6, 0), (15, 12, 0)), ((4, 5, 0), (2, 12, 0)), ((6, 8, 0), (2, 12, 0)), ((15, 8, 0), (6, 14, 0)), ((1, 3, 0), (12, 6, 0)), ((15, 8, 0), (9, 10, 0)), ((16, 7, 0), (16, 5, 0)), ((6, 9, 0), (15, 3, 0)), ((9, 13, 0), (10, 6, 0)), ((9, 8, 0), (6, 3, 0)), ((11, 5, 0), (7, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((6, 14, 0), (9, 8, 0)), ((15, 12, 0), (4, 5, 0)), ((12, 3, 0), (11, 8, 0)), ((10, 5, 0), (6, 14, 0)), ((3, 2, 0), (4, 5, 0)), ((11, 8, 0), (3, 2, 0)), ((2, 12, 0), (8, 15, 0)), ((6, 1, 0), (8, 4, 0))]</t>
+  </si>
+  <si>
+    <t>[((7, 6, 0), (2, 12, 0)), ((10, 5, 0), (6, 14, 0)), ((11, 8, 0), (6, 9, 0)), ((10, 5, 0), (15, 12, 0)), ((4, 5, 0), (8, 4, 0)), ((1, 5, 0), (16, 15, 0)), ((16, 7, 0), (16, 5, 0)), ((9, 8, 0), (6, 3, 0)), ((6, 7, 0), (3, 2, 0)), ((11, 5, 0), (7, 12, 0)), ((1, 9, 0), (15, 1, 0)), ((7, 8, 0), (9, 8, 0)), ((8, 4, 0), (1, 1, 0)), ((8, 4, 0), (8, 15, 0)), ((14, 2, 0), (12, 6, 0)), ((6, 1, 0), (8, 4, 0)), ((9, 13, 0), (10, 6, 0)), ((6, 14, 0), (9, 8, 0)), ((14, 2, 0), (4, 5, 0)), ((4, 14, 0), (6, 3, 0)), ((15, 8, 0), (9, 10, 0)), ((2, 4, 0), (1, 9, 0)), ((15, 1, 0), (4, 14, 0))]</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4025,7 +4100,7 @@
         <v>1558</v>
       </c>
       <c r="M72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4066,7 +4141,7 @@
         <v>1571</v>
       </c>
       <c r="M73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4107,7 +4182,7 @@
         <v>894</v>
       </c>
       <c r="M74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4148,7 +4223,7 @@
         <v>959</v>
       </c>
       <c r="M75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4189,7 +4264,7 @@
         <v>964</v>
       </c>
       <c r="M76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4230,7 +4305,7 @@
         <v>924</v>
       </c>
       <c r="M77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4271,7 +4346,7 @@
         <v>970</v>
       </c>
       <c r="M78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4312,7 +4387,7 @@
         <v>966</v>
       </c>
       <c r="M79" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4353,7 +4428,7 @@
         <v>906</v>
       </c>
       <c r="M80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4394,7 +4469,7 @@
         <v>939</v>
       </c>
       <c r="M81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4435,7 +4510,7 @@
         <v>959</v>
       </c>
       <c r="M82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4476,7 +4551,7 @@
         <v>1006</v>
       </c>
       <c r="M83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4517,7 +4592,7 @@
         <v>1077</v>
       </c>
       <c r="M84" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4558,7 +4633,7 @@
         <v>944</v>
       </c>
       <c r="M85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4599,7 +4674,7 @@
         <v>842</v>
       </c>
       <c r="M86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4640,7 +4715,7 @@
         <v>1063</v>
       </c>
       <c r="M87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4681,7 +4756,7 @@
         <v>936</v>
       </c>
       <c r="M88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4722,7 +4797,7 @@
         <v>933</v>
       </c>
       <c r="M89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4763,7 +4838,7 @@
         <v>916</v>
       </c>
       <c r="M90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4804,7 +4879,7 @@
         <v>900</v>
       </c>
       <c r="M91" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4845,7 +4920,7 @@
         <v>940</v>
       </c>
       <c r="M92" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4886,7 +4961,7 @@
         <v>997</v>
       </c>
       <c r="M93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4927,7 +5002,7 @@
         <v>1012</v>
       </c>
       <c r="M94" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4968,7 +5043,7 @@
         <v>945</v>
       </c>
       <c r="M95" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5009,7 +5084,7 @@
         <v>1067</v>
       </c>
       <c r="M96" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5050,7 +5125,7 @@
         <v>973</v>
       </c>
       <c r="M97" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5091,7 +5166,7 @@
         <v>938</v>
       </c>
       <c r="M98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5132,7 +5207,7 @@
         <v>875</v>
       </c>
       <c r="M99" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5173,7 +5248,7 @@
         <v>897</v>
       </c>
       <c r="M100" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5214,7 +5289,7 @@
         <v>975</v>
       </c>
       <c r="M101" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5255,7 +5330,7 @@
         <v>860</v>
       </c>
       <c r="M102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5296,7 +5371,7 @@
         <v>993</v>
       </c>
       <c r="M103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5337,7 +5412,7 @@
         <v>913</v>
       </c>
       <c r="M104" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5378,7 +5453,7 @@
         <v>946</v>
       </c>
       <c r="M105" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5419,7 +5494,7 @@
         <v>1077</v>
       </c>
       <c r="M106" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5460,7 +5535,7 @@
         <v>872</v>
       </c>
       <c r="M107" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5501,7 +5576,7 @@
         <v>1066</v>
       </c>
       <c r="M108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5542,7 +5617,7 @@
         <v>889</v>
       </c>
       <c r="M109" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5583,7 +5658,7 @@
         <v>930</v>
       </c>
       <c r="M110" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5624,7 +5699,7 @@
         <v>1024</v>
       </c>
       <c r="M111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5665,7 +5740,7 @@
         <v>927</v>
       </c>
       <c r="M112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5706,7 +5781,7 @@
         <v>913</v>
       </c>
       <c r="M113" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5747,7 +5822,7 @@
         <v>1095</v>
       </c>
       <c r="M114" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5788,7 +5863,7 @@
         <v>982</v>
       </c>
       <c r="M115" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5829,7 +5904,7 @@
         <v>940</v>
       </c>
       <c r="M116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5870,7 +5945,7 @@
         <v>965</v>
       </c>
       <c r="M117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5911,7 +5986,7 @@
         <v>940</v>
       </c>
       <c r="M118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5952,7 +6027,7 @@
         <v>961</v>
       </c>
       <c r="M119" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5993,7 +6068,7 @@
         <v>1002</v>
       </c>
       <c r="M120" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6034,7 +6109,7 @@
         <v>1021</v>
       </c>
       <c r="M121" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6075,7 +6150,7 @@
         <v>890</v>
       </c>
       <c r="M122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6116,7 +6191,7 @@
         <v>921</v>
       </c>
       <c r="M123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6157,7 +6232,7 @@
         <v>993</v>
       </c>
       <c r="M124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6198,7 +6273,7 @@
         <v>1028</v>
       </c>
       <c r="M125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6239,7 +6314,7 @@
         <v>1039</v>
       </c>
       <c r="M126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6280,7 +6355,7 @@
         <v>963</v>
       </c>
       <c r="M127" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6321,7 +6396,7 @@
         <v>943</v>
       </c>
       <c r="M128" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6362,7 +6437,7 @@
         <v>978</v>
       </c>
       <c r="M129" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6403,7 +6478,7 @@
         <v>1035</v>
       </c>
       <c r="M130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6444,7 +6519,7 @@
         <v>978</v>
       </c>
       <c r="M131" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6485,7 +6560,7 @@
         <v>879</v>
       </c>
       <c r="M132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -6526,7 +6601,7 @@
         <v>852</v>
       </c>
       <c r="M133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -6567,7 +6642,7 @@
         <v>818</v>
       </c>
       <c r="M134" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -6608,7 +6683,7 @@
         <v>971</v>
       </c>
       <c r="M135" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -6649,7 +6724,7 @@
         <v>950</v>
       </c>
       <c r="M136" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -6690,7 +6765,7 @@
         <v>891</v>
       </c>
       <c r="M137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -6731,7 +6806,7 @@
         <v>1002</v>
       </c>
       <c r="M138" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -6772,7 +6847,7 @@
         <v>961</v>
       </c>
       <c r="M139" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -6813,7 +6888,7 @@
         <v>901</v>
       </c>
       <c r="M140" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -6854,7 +6929,7 @@
         <v>1058</v>
       </c>
       <c r="M141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -6895,7 +6970,7 @@
         <v>879</v>
       </c>
       <c r="M142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -6936,7 +7011,7 @@
         <v>927</v>
       </c>
       <c r="M143" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -6977,7 +7052,7 @@
         <v>922</v>
       </c>
       <c r="M144" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7018,7 +7093,7 @@
         <v>945</v>
       </c>
       <c r="M145" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7059,7 +7134,7 @@
         <v>1118</v>
       </c>
       <c r="M146" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7100,7 +7175,7 @@
         <v>1009</v>
       </c>
       <c r="M147" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7141,7 +7216,7 @@
         <v>902</v>
       </c>
       <c r="M148" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7182,7 +7257,7 @@
         <v>985</v>
       </c>
       <c r="M149" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7223,7 +7298,7 @@
         <v>1057</v>
       </c>
       <c r="M150" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7264,7 +7339,7 @@
         <v>925</v>
       </c>
       <c r="M151" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7305,7 +7380,7 @@
         <v>992</v>
       </c>
       <c r="M152" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7346,7 +7421,7 @@
         <v>962</v>
       </c>
       <c r="M153" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7387,7 +7462,7 @@
         <v>889</v>
       </c>
       <c r="M154" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7428,7 +7503,7 @@
         <v>925</v>
       </c>
       <c r="M155" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7469,7 +7544,7 @@
         <v>963</v>
       </c>
       <c r="M156" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7510,7 +7585,7 @@
         <v>898</v>
       </c>
       <c r="M157" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -7551,7 +7626,7 @@
         <v>1001</v>
       </c>
       <c r="M158" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -7592,7 +7667,7 @@
         <v>901</v>
       </c>
       <c r="M159" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -7633,7 +7708,7 @@
         <v>957</v>
       </c>
       <c r="M160" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7674,7 +7749,7 @@
         <v>1164</v>
       </c>
       <c r="M161" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7715,7 +7790,7 @@
         <v>968</v>
       </c>
       <c r="M162" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -7756,7 +7831,7 @@
         <v>840</v>
       </c>
       <c r="M163" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -7797,7 +7872,7 @@
         <v>942</v>
       </c>
       <c r="M164" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -7838,7 +7913,7 @@
         <v>897</v>
       </c>
       <c r="M165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -7879,7 +7954,7 @@
         <v>949</v>
       </c>
       <c r="M166" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -7920,7 +7995,7 @@
         <v>896</v>
       </c>
       <c r="M167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -7961,7 +8036,7 @@
         <v>981</v>
       </c>
       <c r="M168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8002,7 +8077,7 @@
         <v>968</v>
       </c>
       <c r="M169" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -8043,7 +8118,7 @@
         <v>956</v>
       </c>
       <c r="M170" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8084,7 +8159,7 @@
         <v>964</v>
       </c>
       <c r="M171" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8125,7 +8200,7 @@
         <v>1003</v>
       </c>
       <c r="M172" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8166,7 +8241,7 @@
         <v>945</v>
       </c>
       <c r="M173" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8207,7 +8282,7 @@
         <v>947</v>
       </c>
       <c r="M174" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8248,7 +8323,7 @@
         <v>956</v>
       </c>
       <c r="M175" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8289,7 +8364,7 @@
         <v>1045</v>
       </c>
       <c r="M176" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8330,7 +8405,7 @@
         <v>823</v>
       </c>
       <c r="M177" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8371,7 +8446,7 @@
         <v>960</v>
       </c>
       <c r="M178" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8412,7 +8487,7 @@
         <v>1007</v>
       </c>
       <c r="M179" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8453,7 +8528,7 @@
         <v>978</v>
       </c>
       <c r="M180" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8494,7 +8569,7 @@
         <v>978</v>
       </c>
       <c r="M181" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8535,7 +8610,7 @@
         <v>926</v>
       </c>
       <c r="M182" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8576,7 +8651,7 @@
         <v>889</v>
       </c>
       <c r="M183" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8617,7 +8692,7 @@
         <v>1025</v>
       </c>
       <c r="M184" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8658,7 +8733,7 @@
         <v>891</v>
       </c>
       <c r="M185" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8699,7 +8774,7 @@
         <v>972</v>
       </c>
       <c r="M186" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8740,7 +8815,7 @@
         <v>592</v>
       </c>
       <c r="M187" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8781,7 +8856,7 @@
         <v>1144</v>
       </c>
       <c r="M188" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8822,7 +8897,7 @@
         <v>1005</v>
       </c>
       <c r="M189" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8863,7 +8938,7 @@
         <v>626</v>
       </c>
       <c r="M190" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8904,7 +8979,7 @@
         <v>621</v>
       </c>
       <c r="M191" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8945,7 +9020,7 @@
         <v>565</v>
       </c>
       <c r="M192" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -8986,7 +9061,7 @@
         <v>598</v>
       </c>
       <c r="M193" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9027,10 +9102,10 @@
         <v>631</v>
       </c>
       <c r="M194" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N194" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9071,10 +9146,10 @@
         <v>893</v>
       </c>
       <c r="M195" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N195" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9115,10 +9190,10 @@
         <v>972</v>
       </c>
       <c r="M196" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N196" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9159,10 +9234,10 @@
         <v>936</v>
       </c>
       <c r="M197" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N197" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9203,10 +9278,10 @@
         <v>783</v>
       </c>
       <c r="M198" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N198" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9247,10 +9322,10 @@
         <v>1070</v>
       </c>
       <c r="M199" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N199" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9291,10 +9366,10 @@
         <v>854</v>
       </c>
       <c r="M200" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N200" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9335,10 +9410,802 @@
         <v>745</v>
       </c>
       <c r="M201" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.3478128910064697</v>
+      </c>
+      <c r="C202">
+        <v>0.5</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>4</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>46</v>
+      </c>
+      <c r="K202">
+        <v>0.04</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202" t="s">
+        <v>314</v>
+      </c>
+      <c r="N202" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.3466527462005615</v>
+      </c>
+      <c r="C203">
+        <v>0.5</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>46</v>
+      </c>
+      <c r="K203">
+        <v>0.04</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203" t="s">
+        <v>315</v>
+      </c>
+      <c r="N203" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.3443078994750977</v>
+      </c>
+      <c r="C204">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>46</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>50</v>
+      </c>
+      <c r="M204" t="s">
+        <v>316</v>
+      </c>
+      <c r="N204" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.3348283767700195</v>
+      </c>
+      <c r="C205">
+        <v>1.5</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205" t="s">
+        <v>46</v>
+      </c>
+      <c r="K205">
+        <v>0.04</v>
+      </c>
+      <c r="L205">
+        <v>6</v>
+      </c>
+      <c r="M205" t="s">
+        <v>317</v>
+      </c>
+      <c r="N205" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>10.41067147254944</v>
+      </c>
+      <c r="C206">
+        <v>1.5</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
+        <v>3</v>
+      </c>
+      <c r="J206" t="s">
+        <v>46</v>
+      </c>
+      <c r="K206">
+        <v>0.04</v>
+      </c>
+      <c r="L206">
+        <v>6</v>
+      </c>
+      <c r="M206" t="s">
+        <v>318</v>
+      </c>
+      <c r="N206" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.3153655529022217</v>
+      </c>
+      <c r="C207">
+        <v>1.5</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207">
+        <v>3</v>
+      </c>
+      <c r="J207" t="s">
+        <v>46</v>
+      </c>
+      <c r="K207">
+        <v>0.04</v>
+      </c>
+      <c r="L207">
+        <v>6</v>
+      </c>
+      <c r="M207" t="s">
         <v>319</v>
+      </c>
+      <c r="N207" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.2908248901367188</v>
+      </c>
+      <c r="C208">
+        <v>1.5</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+      <c r="H208">
+        <v>3</v>
+      </c>
+      <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208" t="s">
+        <v>46</v>
+      </c>
+      <c r="K208">
+        <v>0.04</v>
+      </c>
+      <c r="L208">
+        <v>6</v>
+      </c>
+      <c r="M208" t="s">
+        <v>320</v>
+      </c>
+      <c r="N208" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.317819356918335</v>
+      </c>
+      <c r="C209">
+        <v>1.5</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+      <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209">
+        <v>0.04</v>
+      </c>
+      <c r="L209">
+        <v>6</v>
+      </c>
+      <c r="M209" t="s">
+        <v>321</v>
+      </c>
+      <c r="N209" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.3028461933135986</v>
+      </c>
+      <c r="C210">
+        <v>1.5</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" t="s">
+        <v>46</v>
+      </c>
+      <c r="K210">
+        <v>0.04</v>
+      </c>
+      <c r="L210">
+        <v>6</v>
+      </c>
+      <c r="M210" t="s">
+        <v>322</v>
+      </c>
+      <c r="N210" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.3109331130981445</v>
+      </c>
+      <c r="C211">
+        <v>1.5</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>3</v>
+      </c>
+      <c r="J211" t="s">
+        <v>46</v>
+      </c>
+      <c r="K211">
+        <v>0.04</v>
+      </c>
+      <c r="L211">
+        <v>6</v>
+      </c>
+      <c r="M211" t="s">
+        <v>323</v>
+      </c>
+      <c r="N211" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.3128588199615479</v>
+      </c>
+      <c r="C212">
+        <v>1.5</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="F212">
+        <v>4</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+      <c r="H212">
+        <v>3</v>
+      </c>
+      <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="J212" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212">
+        <v>0.04</v>
+      </c>
+      <c r="L212">
+        <v>6</v>
+      </c>
+      <c r="M212" t="s">
+        <v>324</v>
+      </c>
+      <c r="N212" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.3353288173675537</v>
+      </c>
+      <c r="C213">
+        <v>1.375</v>
+      </c>
+      <c r="D213">
+        <v>33</v>
+      </c>
+      <c r="E213">
+        <v>15.4</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="G213">
+        <v>11</v>
+      </c>
+      <c r="H213">
+        <v>21</v>
+      </c>
+      <c r="I213">
+        <v>3</v>
+      </c>
+      <c r="J213" t="s">
+        <v>46</v>
+      </c>
+      <c r="K213">
+        <v>0.8</v>
+      </c>
+      <c r="L213">
+        <v>616</v>
+      </c>
+      <c r="M213" t="s">
+        <v>325</v>
+      </c>
+      <c r="N213" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.331812858581543</v>
+      </c>
+      <c r="C214">
+        <v>1.375</v>
+      </c>
+      <c r="D214">
+        <v>33</v>
+      </c>
+      <c r="E214">
+        <v>15.4</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
+      </c>
+      <c r="G214">
+        <v>11</v>
+      </c>
+      <c r="H214">
+        <v>21</v>
+      </c>
+      <c r="I214">
+        <v>3</v>
+      </c>
+      <c r="J214" t="s">
+        <v>46</v>
+      </c>
+      <c r="K214">
+        <v>0.8</v>
+      </c>
+      <c r="L214">
+        <v>616</v>
+      </c>
+      <c r="M214" t="s">
+        <v>326</v>
+      </c>
+      <c r="N214" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.3258018493652344</v>
+      </c>
+      <c r="C215">
+        <v>1.375</v>
+      </c>
+      <c r="D215">
+        <v>33</v>
+      </c>
+      <c r="E215">
+        <v>15.4</v>
+      </c>
+      <c r="F215">
+        <v>4</v>
+      </c>
+      <c r="G215">
+        <v>11</v>
+      </c>
+      <c r="H215">
+        <v>21</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215" t="s">
+        <v>46</v>
+      </c>
+      <c r="K215">
+        <v>0.8</v>
+      </c>
+      <c r="L215">
+        <v>616</v>
+      </c>
+      <c r="M215" t="s">
+        <v>327</v>
+      </c>
+      <c r="N215" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.296832799911499</v>
+      </c>
+      <c r="C216">
+        <v>1.375</v>
+      </c>
+      <c r="D216">
+        <v>33</v>
+      </c>
+      <c r="E216">
+        <v>15.4</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+      <c r="G216">
+        <v>11</v>
+      </c>
+      <c r="H216">
+        <v>21</v>
+      </c>
+      <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" t="s">
+        <v>46</v>
+      </c>
+      <c r="K216">
+        <v>0.8</v>
+      </c>
+      <c r="L216">
+        <v>616</v>
+      </c>
+      <c r="M216" t="s">
+        <v>328</v>
+      </c>
+      <c r="N216" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.2738456726074219</v>
+      </c>
+      <c r="C217">
+        <v>1.375</v>
+      </c>
+      <c r="D217">
+        <v>33</v>
+      </c>
+      <c r="E217">
+        <v>15.4</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+      <c r="G217">
+        <v>11</v>
+      </c>
+      <c r="H217">
+        <v>21</v>
+      </c>
+      <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>46</v>
+      </c>
+      <c r="K217">
+        <v>0.8</v>
+      </c>
+      <c r="L217">
+        <v>616</v>
+      </c>
+      <c r="M217" t="s">
+        <v>329</v>
+      </c>
+      <c r="N217" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.2263805866241455</v>
+      </c>
+      <c r="C218">
+        <v>1.385416666666667</v>
+      </c>
+      <c r="D218">
+        <v>31</v>
+      </c>
+      <c r="E218">
+        <v>19</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
+      </c>
+      <c r="G218">
+        <v>27</v>
+      </c>
+      <c r="H218">
+        <v>22</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218" t="s">
+        <v>182</v>
+      </c>
+      <c r="K218">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L218">
+        <v>532</v>
+      </c>
+      <c r="M218" t="s">
+        <v>330</v>
+      </c>
+      <c r="N218" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.293039083480835</v>
+      </c>
+      <c r="C219">
+        <v>1.356353591160221</v>
+      </c>
+      <c r="D219">
+        <v>31</v>
+      </c>
+      <c r="E219">
+        <v>18.18518518518519</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="G219">
+        <v>11</v>
+      </c>
+      <c r="H219">
+        <v>15</v>
+      </c>
+      <c r="I219">
+        <v>5</v>
+      </c>
+      <c r="J219" t="s">
+        <v>183</v>
+      </c>
+      <c r="K219">
+        <v>0.54</v>
+      </c>
+      <c r="L219">
+        <v>491</v>
+      </c>
+      <c r="M219" t="s">
+        <v>331</v>
+      </c>
+      <c r="N219" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
